--- a/SuppXLS/Scen_NODESTEC.xlsx
+++ b/SuppXLS/Scen_NODESTEC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\EU-TIMES\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NewVEDA\Veda_models\EU_TIMES_Veda2.0\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84371B46-31C7-4B21-BA17-2210C3ADF0A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA15D254-49E5-4590-8BCC-B9E8F9FC110E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="570" windowWidth="25080" windowHeight="15030"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INS" sheetId="2" r:id="rId1"/>
@@ -19,25 +19,17 @@
     <sheet name="Sheet9" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
     <author>Gary Goldstein</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="1" shapeId="0">
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="1" shapeId="0">
+    <comment ref="N2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -82,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -139,12 +131,15 @@
   </si>
   <si>
     <t>IMPELC-DESTEC</t>
+  </si>
+  <si>
+    <t>EUWINOFV01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -251,8 +246,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="1"/>
-    <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="2"/>
+    <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -587,10 +582,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -686,6 +683,17 @@
         <v>18</v>
       </c>
     </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>2100</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -693,7 +701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -705,7 +713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -717,7 +725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/SuppXLS/Scen_NODESTEC.xlsx
+++ b/SuppXLS/Scen_NODESTEC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NewVEDA\Veda_models\EU_TIMES_Veda2.0\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA15D254-49E5-4590-8BCC-B9E8F9FC110E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D485B4-99C7-4185-988E-A319DC74CD09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INS" sheetId="2" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>IMPELC-DESTEC</t>
-  </si>
-  <si>
-    <t>EUWINOFV01</t>
   </si>
 </sst>
 </file>
@@ -583,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,17 +680,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5">
-        <v>2100</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
